--- a/заказы/статистика филиалы/2023/12,23/20,12,23 КИ/дв 20,12,23 днрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/20,12,23 КИ/дв 20,12,23 днрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\20,12,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\20,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A622E6-26A5-4E52-ADCA-A60A3159493C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF89D2-FB6D-44E9-B275-DA684AB7CDBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,6 +533,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -630,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -841,32 +843,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="28"/>
-      </right>
-      <top style="hair">
-        <color indexed="28"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="28"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="28"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -927,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1012,16 +988,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9241,8 +9211,8 @@
   <dimension ref="A1:AF132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S52" sqref="S52"/>
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9482,12 +9452,21 @@
         <v>30465.9846</v>
       </c>
       <c r="R5" s="32">
-        <f t="shared" ref="R5" si="1">SUM(R6:R265)</f>
+        <f t="shared" ref="R5:U5" si="1">SUM(R6:R265)</f>
         <v>30384.527999999995</v>
       </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="43"/>
+      <c r="S5" s="32">
+        <f t="shared" si="1"/>
+        <v>8900</v>
+      </c>
+      <c r="T5" s="32">
+        <f t="shared" si="1"/>
+        <v>18784.527999999998</v>
+      </c>
+      <c r="U5" s="32">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
       <c r="V5" s="34">
         <f t="shared" si="0"/>
         <v>44613</v>
@@ -9580,12 +9559,12 @@
         <f>Q6</f>
         <v>96.136200000000002</v>
       </c>
-      <c r="S6" s="44"/>
+      <c r="S6" s="42"/>
       <c r="T6" s="21">
         <f>R6-S6-U6</f>
         <v>96.136200000000002</v>
       </c>
-      <c r="U6" s="45"/>
+      <c r="U6" s="43"/>
       <c r="V6" s="35">
         <v>237</v>
       </c>
@@ -9675,12 +9654,12 @@
         <f t="shared" ref="R7:R8" si="6">Q7</f>
         <v>0</v>
       </c>
-      <c r="S7" s="44"/>
+      <c r="S7" s="42"/>
       <c r="T7" s="21">
         <f t="shared" ref="T7:T70" si="7">R7-S7-U7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="45"/>
+      <c r="U7" s="43"/>
       <c r="V7" s="35">
         <v>94</v>
       </c>
@@ -9769,12 +9748,12 @@
         <f t="shared" si="6"/>
         <v>139.10700000000003</v>
       </c>
-      <c r="S8" s="44"/>
+      <c r="S8" s="42"/>
       <c r="T8" s="21">
         <f t="shared" si="7"/>
         <v>139.10700000000003</v>
       </c>
-      <c r="U8" s="45"/>
+      <c r="U8" s="43"/>
       <c r="V8" s="35">
         <v>357</v>
       </c>
@@ -9858,12 +9837,12 @@
         <f t="shared" ref="R9:R70" si="13">Q9</f>
         <v>0</v>
       </c>
-      <c r="S9" s="44"/>
+      <c r="S9" s="42"/>
       <c r="T9" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U9" s="45"/>
+      <c r="U9" s="43"/>
       <c r="V9" s="35"/>
       <c r="X9" s="2">
         <f t="shared" si="8"/>
@@ -9952,12 +9931,12 @@
         <f>Q10</f>
         <v>32</v>
       </c>
-      <c r="S10" s="44"/>
+      <c r="S10" s="42"/>
       <c r="T10" s="21">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="U10" s="45"/>
+      <c r="U10" s="43"/>
       <c r="V10" s="35">
         <v>56</v>
       </c>
@@ -10042,12 +10021,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S11" s="44"/>
+      <c r="S11" s="42"/>
       <c r="T11" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U11" s="45"/>
+      <c r="U11" s="43"/>
       <c r="V11" s="35"/>
       <c r="X11" s="2" t="e">
         <f t="shared" si="8"/>
@@ -10132,12 +10111,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S12" s="44"/>
+      <c r="S12" s="42"/>
       <c r="T12" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U12" s="45"/>
+      <c r="U12" s="43"/>
       <c r="V12" s="35">
         <v>76</v>
       </c>
@@ -10230,12 +10209,12 @@
         <f t="shared" si="13"/>
         <v>104.20000000000005</v>
       </c>
-      <c r="S13" s="44"/>
+      <c r="S13" s="42"/>
       <c r="T13" s="21">
         <f t="shared" si="7"/>
         <v>104.20000000000005</v>
       </c>
-      <c r="U13" s="45"/>
+      <c r="U13" s="43"/>
       <c r="V13" s="35">
         <v>478</v>
       </c>
@@ -10319,12 +10298,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S14" s="44"/>
+      <c r="S14" s="42"/>
       <c r="T14" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U14" s="45"/>
+      <c r="U14" s="43"/>
       <c r="V14" s="35"/>
       <c r="X14" s="2">
         <f t="shared" si="8"/>
@@ -10412,12 +10391,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S15" s="44"/>
+      <c r="S15" s="42"/>
       <c r="T15" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U15" s="45"/>
+      <c r="U15" s="43"/>
       <c r="V15" s="35"/>
       <c r="X15" s="2">
         <f t="shared" si="8"/>
@@ -10505,12 +10484,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S16" s="44"/>
+      <c r="S16" s="42"/>
       <c r="T16" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U16" s="45"/>
+      <c r="U16" s="43"/>
       <c r="V16" s="35"/>
       <c r="X16" s="2">
         <f t="shared" si="8"/>
@@ -10597,12 +10576,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="42"/>
       <c r="T17" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U17" s="45"/>
+      <c r="U17" s="43"/>
       <c r="V17" s="35"/>
       <c r="X17" s="2" t="e">
         <f t="shared" si="8"/>
@@ -10687,12 +10666,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S18" s="44"/>
+      <c r="S18" s="42"/>
       <c r="T18" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U18" s="45"/>
+      <c r="U18" s="43"/>
       <c r="V18" s="35"/>
       <c r="X18" s="2" t="e">
         <f t="shared" si="8"/>
@@ -10778,12 +10757,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S19" s="44"/>
+      <c r="S19" s="42"/>
       <c r="T19" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U19" s="45"/>
+      <c r="U19" s="43"/>
       <c r="V19" s="35"/>
       <c r="X19" s="2">
         <f t="shared" si="8"/>
@@ -10875,12 +10854,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S20" s="44"/>
+      <c r="S20" s="42"/>
       <c r="T20" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U20" s="45"/>
+      <c r="U20" s="43"/>
       <c r="V20" s="35"/>
       <c r="X20" s="2">
         <f t="shared" si="8"/>
@@ -10963,12 +10942,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S21" s="44"/>
+      <c r="S21" s="42"/>
       <c r="T21" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U21" s="45"/>
+      <c r="U21" s="43"/>
       <c r="V21" s="35"/>
       <c r="X21" s="2" t="e">
         <f t="shared" si="8"/>
@@ -11060,12 +11039,12 @@
         <f t="shared" si="13"/>
         <v>38</v>
       </c>
-      <c r="S22" s="44"/>
+      <c r="S22" s="42"/>
       <c r="T22" s="21">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="U22" s="45"/>
+      <c r="U22" s="43"/>
       <c r="V22" s="35">
         <v>52</v>
       </c>
@@ -11150,12 +11129,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S23" s="44"/>
+      <c r="S23" s="42"/>
       <c r="T23" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U23" s="45"/>
+      <c r="U23" s="43"/>
       <c r="V23" s="35"/>
       <c r="X23" s="2" t="e">
         <f t="shared" si="8"/>
@@ -11234,12 +11213,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S24" s="44"/>
+      <c r="S24" s="42"/>
       <c r="T24" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U24" s="45"/>
+      <c r="U24" s="43"/>
       <c r="V24" s="35"/>
       <c r="X24" s="2">
         <f t="shared" si="8"/>
@@ -11321,12 +11300,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S25" s="44"/>
+      <c r="S25" s="42"/>
       <c r="T25" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U25" s="45"/>
+      <c r="U25" s="43"/>
       <c r="V25" s="35"/>
       <c r="X25" s="2">
         <f t="shared" si="8"/>
@@ -11410,12 +11389,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S26" s="44"/>
+      <c r="S26" s="42"/>
       <c r="T26" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U26" s="45"/>
+      <c r="U26" s="43"/>
       <c r="V26" s="35"/>
       <c r="X26" s="2" t="e">
         <f t="shared" si="8"/>
@@ -11503,12 +11482,12 @@
         <f t="shared" si="13"/>
         <v>120.19999999999999</v>
       </c>
-      <c r="S27" s="44"/>
+      <c r="S27" s="42"/>
       <c r="T27" s="21">
         <f t="shared" si="7"/>
         <v>120.19999999999999</v>
       </c>
-      <c r="U27" s="45"/>
+      <c r="U27" s="43"/>
       <c r="V27" s="35">
         <v>222</v>
       </c>
@@ -11600,12 +11579,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S28" s="44"/>
+      <c r="S28" s="42"/>
       <c r="T28" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U28" s="45"/>
+      <c r="U28" s="43"/>
       <c r="V28" s="35"/>
       <c r="X28" s="2">
         <f t="shared" si="8"/>
@@ -11687,12 +11666,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S29" s="44"/>
+      <c r="S29" s="42"/>
       <c r="T29" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U29" s="45"/>
+      <c r="U29" s="43"/>
       <c r="V29" s="35"/>
       <c r="X29" s="2">
         <f t="shared" si="8"/>
@@ -11779,12 +11758,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S30" s="44"/>
+      <c r="S30" s="42"/>
       <c r="T30" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U30" s="45"/>
+      <c r="U30" s="43"/>
       <c r="V30" s="35"/>
       <c r="X30" s="2" t="e">
         <f t="shared" si="8"/>
@@ -11864,12 +11843,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S31" s="44"/>
+      <c r="S31" s="42"/>
       <c r="T31" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U31" s="45"/>
+      <c r="U31" s="43"/>
       <c r="V31" s="35"/>
       <c r="X31" s="2" t="e">
         <f t="shared" si="8"/>
@@ -11949,12 +11928,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S32" s="44"/>
+      <c r="S32" s="42"/>
       <c r="T32" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U32" s="45"/>
+      <c r="U32" s="43"/>
       <c r="V32" s="35"/>
       <c r="X32" s="2" t="e">
         <f t="shared" si="8"/>
@@ -12039,12 +12018,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S33" s="44"/>
+      <c r="S33" s="42"/>
       <c r="T33" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U33" s="45"/>
+      <c r="U33" s="43"/>
       <c r="V33" s="35"/>
       <c r="X33" s="2">
         <f t="shared" si="8"/>
@@ -12124,12 +12103,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S34" s="44"/>
+      <c r="S34" s="42"/>
       <c r="T34" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U34" s="45"/>
+      <c r="U34" s="43"/>
       <c r="V34" s="35"/>
       <c r="X34" s="2" t="e">
         <f t="shared" si="8"/>
@@ -12217,12 +12196,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S35" s="44"/>
+      <c r="S35" s="42"/>
       <c r="T35" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U35" s="45"/>
+      <c r="U35" s="43"/>
       <c r="V35" s="35"/>
       <c r="X35" s="2" t="e">
         <f t="shared" si="8"/>
@@ -12306,12 +12285,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S36" s="44"/>
+      <c r="S36" s="42"/>
       <c r="T36" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U36" s="45"/>
+      <c r="U36" s="43"/>
       <c r="V36" s="35"/>
       <c r="X36" s="2" t="e">
         <f t="shared" si="8"/>
@@ -12404,14 +12383,14 @@
       <c r="R37" s="33">
         <v>1000</v>
       </c>
-      <c r="S37" s="44">
+      <c r="S37" s="42">
         <v>500</v>
       </c>
       <c r="T37" s="21">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="U37" s="45"/>
+      <c r="U37" s="43"/>
       <c r="V37" s="35">
         <v>2000</v>
       </c>
@@ -12503,14 +12482,14 @@
         <f t="shared" si="13"/>
         <v>4941.1751999999997</v>
       </c>
-      <c r="S38" s="44">
+      <c r="S38" s="42">
         <v>2000</v>
       </c>
       <c r="T38" s="21">
         <f t="shared" si="7"/>
         <v>2941.1751999999997</v>
       </c>
-      <c r="U38" s="45"/>
+      <c r="U38" s="43"/>
       <c r="V38" s="35">
         <v>5766</v>
       </c>
@@ -12596,12 +12575,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S39" s="44"/>
+      <c r="S39" s="42"/>
       <c r="T39" s="21">
         <f>R39-S39-U39</f>
         <v>0</v>
       </c>
-      <c r="U39" s="45"/>
+      <c r="U39" s="43"/>
       <c r="V39" s="35"/>
       <c r="X39" s="2">
         <f t="shared" si="8"/>
@@ -12695,14 +12674,14 @@
         <f>Q40</f>
         <v>829.24179999999978</v>
       </c>
-      <c r="S40" s="44">
+      <c r="S40" s="42">
         <v>400</v>
       </c>
       <c r="T40" s="21">
         <f>R40-S40-U40</f>
         <v>429.24179999999978</v>
       </c>
-      <c r="U40" s="45"/>
+      <c r="U40" s="43"/>
       <c r="V40" s="35">
         <v>2000</v>
       </c>
@@ -12780,12 +12759,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S41" s="44"/>
+      <c r="S41" s="42"/>
       <c r="T41" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U41" s="45"/>
+      <c r="U41" s="43"/>
       <c r="V41" s="35"/>
       <c r="X41" s="2" t="e">
         <f t="shared" si="8"/>
@@ -12875,14 +12854,14 @@
       <c r="R42" s="33">
         <v>7400</v>
       </c>
-      <c r="S42" s="44">
+      <c r="S42" s="42">
         <v>2000</v>
       </c>
       <c r="T42" s="21">
         <f t="shared" si="7"/>
         <v>2700</v>
       </c>
-      <c r="U42" s="45">
+      <c r="U42" s="43">
         <v>2700</v>
       </c>
       <c r="V42" s="35">
@@ -12968,12 +12947,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S43" s="44"/>
+      <c r="S43" s="42"/>
       <c r="T43" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U43" s="45"/>
+      <c r="U43" s="43"/>
       <c r="V43" s="35"/>
       <c r="X43" s="2">
         <f t="shared" si="8"/>
@@ -13051,12 +13030,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S44" s="44"/>
+      <c r="S44" s="42"/>
       <c r="T44" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U44" s="45"/>
+      <c r="U44" s="43"/>
       <c r="V44" s="35"/>
       <c r="X44" s="2" t="e">
         <f t="shared" si="8"/>
@@ -13146,12 +13125,12 @@
         <f t="shared" si="13"/>
         <v>219.95520000000005</v>
       </c>
-      <c r="S45" s="44"/>
+      <c r="S45" s="42"/>
       <c r="T45" s="21">
         <f t="shared" si="7"/>
         <v>219.95520000000005</v>
       </c>
-      <c r="U45" s="45"/>
+      <c r="U45" s="43"/>
       <c r="V45" s="35">
         <v>316</v>
       </c>
@@ -13233,12 +13212,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S46" s="44"/>
+      <c r="S46" s="42"/>
       <c r="T46" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U46" s="45"/>
+      <c r="U46" s="43"/>
       <c r="V46" s="35"/>
       <c r="X46" s="2">
         <f t="shared" si="8"/>
@@ -13330,14 +13309,14 @@
         <f t="shared" si="13"/>
         <v>1876.8625999999997</v>
       </c>
-      <c r="S47" s="44">
+      <c r="S47" s="42">
         <v>800</v>
       </c>
       <c r="T47" s="21">
         <f t="shared" si="7"/>
         <v>1076.8625999999997</v>
       </c>
-      <c r="U47" s="45"/>
+      <c r="U47" s="43"/>
       <c r="V47" s="35">
         <v>2561</v>
       </c>
@@ -13430,14 +13409,14 @@
         <f>Q48</f>
         <v>5028.4366</v>
       </c>
-      <c r="S48" s="44">
+      <c r="S48" s="42">
         <v>2500</v>
       </c>
       <c r="T48" s="21">
         <f t="shared" si="7"/>
         <v>2528.4366</v>
       </c>
-      <c r="U48" s="45"/>
+      <c r="U48" s="43"/>
       <c r="V48" s="35">
         <v>5885</v>
       </c>
@@ -13519,12 +13498,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S49" s="44"/>
+      <c r="S49" s="42"/>
       <c r="T49" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U49" s="45"/>
+      <c r="U49" s="43"/>
       <c r="V49" s="35"/>
       <c r="X49" s="2">
         <f t="shared" si="8"/>
@@ -13611,14 +13590,14 @@
         <f t="shared" si="13"/>
         <v>805.18080000000009</v>
       </c>
-      <c r="S50" s="44">
+      <c r="S50" s="42">
         <v>400</v>
       </c>
       <c r="T50" s="21">
         <f t="shared" si="7"/>
         <v>405.18080000000009</v>
       </c>
-      <c r="U50" s="45"/>
+      <c r="U50" s="43"/>
       <c r="V50" s="35">
         <v>1838</v>
       </c>
@@ -13710,14 +13689,14 @@
         <f t="shared" si="13"/>
         <v>605.49959999999987</v>
       </c>
-      <c r="S51" s="44">
+      <c r="S51" s="42">
         <v>300</v>
       </c>
       <c r="T51" s="21">
         <f t="shared" si="7"/>
         <v>305.49959999999987</v>
       </c>
-      <c r="U51" s="45"/>
+      <c r="U51" s="43"/>
       <c r="V51" s="35">
         <v>1000</v>
       </c>
@@ -13795,12 +13774,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S52" s="44"/>
+      <c r="S52" s="42"/>
       <c r="T52" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U52" s="45"/>
+      <c r="U52" s="43"/>
       <c r="V52" s="35"/>
       <c r="X52" s="2" t="e">
         <f t="shared" si="8"/>
@@ -13898,12 +13877,12 @@
         <f t="shared" si="13"/>
         <v>810.47579999999994</v>
       </c>
-      <c r="S53" s="44"/>
+      <c r="S53" s="42"/>
       <c r="T53" s="21">
         <f t="shared" si="7"/>
         <v>810.47579999999994</v>
       </c>
-      <c r="U53" s="45"/>
+      <c r="U53" s="43"/>
       <c r="V53" s="35">
         <v>1500</v>
       </c>
@@ -13991,12 +13970,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S54" s="44"/>
+      <c r="S54" s="42"/>
       <c r="T54" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U54" s="45"/>
+      <c r="U54" s="43"/>
       <c r="V54" s="35">
         <v>19</v>
       </c>
@@ -14092,12 +14071,12 @@
         <f t="shared" si="13"/>
         <v>506.93439999999993</v>
       </c>
-      <c r="S55" s="44"/>
+      <c r="S55" s="42"/>
       <c r="T55" s="21">
         <f t="shared" si="7"/>
         <v>506.93439999999993</v>
       </c>
-      <c r="U55" s="45"/>
+      <c r="U55" s="43"/>
       <c r="V55" s="35">
         <v>1500</v>
       </c>
@@ -14185,12 +14164,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S56" s="44"/>
+      <c r="S56" s="42"/>
       <c r="T56" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U56" s="45"/>
+      <c r="U56" s="43"/>
       <c r="V56" s="35"/>
       <c r="X56" s="2">
         <f t="shared" si="8"/>
@@ -14270,12 +14249,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S57" s="44"/>
+      <c r="S57" s="42"/>
       <c r="T57" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U57" s="45"/>
+      <c r="U57" s="43"/>
       <c r="V57" s="35"/>
       <c r="X57" s="2" t="e">
         <f t="shared" si="8"/>
@@ -14370,12 +14349,12 @@
         <f t="shared" si="13"/>
         <v>92.183999999999969</v>
       </c>
-      <c r="S58" s="44"/>
+      <c r="S58" s="42"/>
       <c r="T58" s="21">
         <f t="shared" si="7"/>
         <v>92.183999999999969</v>
       </c>
-      <c r="U58" s="45"/>
+      <c r="U58" s="43"/>
       <c r="V58" s="35">
         <v>118</v>
       </c>
@@ -14468,12 +14447,12 @@
         <f t="shared" si="13"/>
         <v>332.73200000000008</v>
       </c>
-      <c r="S59" s="44"/>
+      <c r="S59" s="42"/>
       <c r="T59" s="21">
         <f t="shared" si="7"/>
         <v>332.73200000000008</v>
       </c>
-      <c r="U59" s="45"/>
+      <c r="U59" s="43"/>
       <c r="V59" s="35">
         <v>525</v>
       </c>
@@ -14555,12 +14534,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S60" s="44"/>
+      <c r="S60" s="42"/>
       <c r="T60" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U60" s="45"/>
+      <c r="U60" s="43"/>
       <c r="V60" s="35"/>
       <c r="X60" s="2" t="e">
         <f t="shared" si="8"/>
@@ -14643,12 +14622,12 @@
         <f t="shared" si="13"/>
         <v>24.463999999999999</v>
       </c>
-      <c r="S61" s="44"/>
+      <c r="S61" s="42"/>
       <c r="T61" s="21">
         <f t="shared" si="7"/>
         <v>24.463999999999999</v>
       </c>
-      <c r="U61" s="45"/>
+      <c r="U61" s="43"/>
       <c r="V61" s="35">
         <v>34</v>
       </c>
@@ -14730,12 +14709,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S62" s="44"/>
+      <c r="S62" s="42"/>
       <c r="T62" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U62" s="45"/>
+      <c r="U62" s="43"/>
       <c r="V62" s="35"/>
       <c r="X62" s="2">
         <f t="shared" si="8"/>
@@ -14830,12 +14809,12 @@
         <f t="shared" si="13"/>
         <v>2638.9168</v>
       </c>
-      <c r="S63" s="44"/>
+      <c r="S63" s="42"/>
       <c r="T63" s="21">
         <f t="shared" si="7"/>
         <v>2638.9168</v>
       </c>
-      <c r="U63" s="45"/>
+      <c r="U63" s="43"/>
       <c r="V63" s="35">
         <v>3758</v>
       </c>
@@ -14901,12 +14880,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S64" s="44"/>
+      <c r="S64" s="42"/>
       <c r="T64" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U64" s="45"/>
+      <c r="U64" s="43"/>
       <c r="V64" s="35"/>
       <c r="X64" s="2" t="e">
         <f t="shared" si="8"/>
@@ -14988,12 +14967,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S65" s="44"/>
+      <c r="S65" s="42"/>
       <c r="T65" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U65" s="45"/>
+      <c r="U65" s="43"/>
       <c r="V65" s="35"/>
       <c r="X65" s="2">
         <f t="shared" si="8"/>
@@ -15077,12 +15056,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S66" s="44"/>
+      <c r="S66" s="42"/>
       <c r="T66" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U66" s="45"/>
+      <c r="U66" s="43"/>
       <c r="V66" s="35"/>
       <c r="X66" s="2">
         <f t="shared" si="8"/>
@@ -15175,12 +15154,12 @@
         <f t="shared" si="13"/>
         <v>86.625399999999999</v>
       </c>
-      <c r="S67" s="44"/>
+      <c r="S67" s="42"/>
       <c r="T67" s="21">
         <f t="shared" si="7"/>
         <v>86.625399999999999</v>
       </c>
-      <c r="U67" s="45"/>
+      <c r="U67" s="43"/>
       <c r="V67" s="35">
         <v>118</v>
       </c>
@@ -15271,12 +15250,12 @@
         <f t="shared" si="13"/>
         <v>57.567799999999998</v>
       </c>
-      <c r="S68" s="44"/>
+      <c r="S68" s="42"/>
       <c r="T68" s="21">
         <f t="shared" si="7"/>
         <v>57.567799999999998</v>
       </c>
-      <c r="U68" s="45"/>
+      <c r="U68" s="43"/>
       <c r="V68" s="35">
         <v>80</v>
       </c>
@@ -15364,12 +15343,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S69" s="44"/>
+      <c r="S69" s="42"/>
       <c r="T69" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U69" s="45"/>
+      <c r="U69" s="43"/>
       <c r="V69" s="35"/>
       <c r="X69" s="2">
         <f t="shared" si="8"/>
@@ -15459,12 +15438,12 @@
         <f t="shared" si="13"/>
         <v>252</v>
       </c>
-      <c r="S70" s="44"/>
+      <c r="S70" s="42"/>
       <c r="T70" s="21">
         <f t="shared" si="7"/>
         <v>252</v>
       </c>
-      <c r="U70" s="45"/>
+      <c r="U70" s="43"/>
       <c r="V70" s="35">
         <v>696</v>
       </c>
@@ -15550,12 +15529,12 @@
         <f t="shared" ref="R71" si="16">Q71</f>
         <v>0</v>
       </c>
-      <c r="S71" s="44"/>
+      <c r="S71" s="42"/>
       <c r="T71" s="21">
         <f t="shared" ref="T71:T132" si="17">R71-S71-U71</f>
         <v>0</v>
       </c>
-      <c r="U71" s="45"/>
+      <c r="U71" s="43"/>
       <c r="V71" s="35">
         <v>10</v>
       </c>
@@ -15642,12 +15621,12 @@
         <f t="shared" ref="R72:R132" si="26">Q72</f>
         <v>357.19</v>
       </c>
-      <c r="S72" s="44"/>
+      <c r="S72" s="42"/>
       <c r="T72" s="21">
         <f t="shared" si="17"/>
         <v>357.19</v>
       </c>
-      <c r="U72" s="45"/>
+      <c r="U72" s="43"/>
       <c r="V72" s="35">
         <v>500</v>
       </c>
@@ -15733,12 +15712,12 @@
         <f>Q73</f>
         <v>0</v>
       </c>
-      <c r="S73" s="44"/>
+      <c r="S73" s="42"/>
       <c r="T73" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U73" s="45"/>
+      <c r="U73" s="43"/>
       <c r="V73" s="35">
         <v>86</v>
       </c>
@@ -15820,12 +15799,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S74" s="44"/>
+      <c r="S74" s="42"/>
       <c r="T74" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U74" s="45"/>
+      <c r="U74" s="43"/>
       <c r="V74" s="35"/>
       <c r="X74" s="2" t="e">
         <f t="shared" si="18"/>
@@ -15919,12 +15898,12 @@
         <f>Q75</f>
         <v>366.6</v>
       </c>
-      <c r="S75" s="44"/>
+      <c r="S75" s="42"/>
       <c r="T75" s="21">
         <f t="shared" si="17"/>
         <v>366.6</v>
       </c>
-      <c r="U75" s="45"/>
+      <c r="U75" s="43"/>
       <c r="V75" s="35">
         <v>667</v>
       </c>
@@ -16024,12 +16003,12 @@
         <f t="shared" si="26"/>
         <v>707.2</v>
       </c>
-      <c r="S76" s="44"/>
+      <c r="S76" s="42"/>
       <c r="T76" s="21">
         <f t="shared" si="17"/>
         <v>707.2</v>
       </c>
-      <c r="U76" s="45"/>
+      <c r="U76" s="43"/>
       <c r="V76" s="35">
         <v>1012</v>
       </c>
@@ -16120,12 +16099,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S77" s="44"/>
+      <c r="S77" s="42"/>
       <c r="T77" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U77" s="45"/>
+      <c r="U77" s="43"/>
       <c r="V77" s="35">
         <v>10</v>
       </c>
@@ -16215,12 +16194,12 @@
         <f t="shared" si="26"/>
         <v>42.541200000000003</v>
       </c>
-      <c r="S78" s="44"/>
+      <c r="S78" s="42"/>
       <c r="T78" s="21">
         <f t="shared" si="17"/>
         <v>42.541200000000003</v>
       </c>
-      <c r="U78" s="45"/>
+      <c r="U78" s="43"/>
       <c r="V78" s="35">
         <v>140</v>
       </c>
@@ -16314,12 +16293,12 @@
         <f t="shared" si="26"/>
         <v>197.44980000000001</v>
       </c>
-      <c r="S79" s="44"/>
+      <c r="S79" s="42"/>
       <c r="T79" s="21">
         <f t="shared" si="17"/>
         <v>197.44980000000001</v>
       </c>
-      <c r="U79" s="45"/>
+      <c r="U79" s="43"/>
       <c r="V79" s="35">
         <v>341</v>
       </c>
@@ -16409,12 +16388,12 @@
         <f t="shared" si="26"/>
         <v>87.524600000000021</v>
       </c>
-      <c r="S80" s="44"/>
+      <c r="S80" s="42"/>
       <c r="T80" s="21">
         <f t="shared" si="17"/>
         <v>87.524600000000021</v>
       </c>
-      <c r="U80" s="45"/>
+      <c r="U80" s="43"/>
       <c r="V80" s="35">
         <v>246</v>
       </c>
@@ -16496,12 +16475,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S81" s="44"/>
+      <c r="S81" s="42"/>
       <c r="T81" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U81" s="45"/>
+      <c r="U81" s="43"/>
       <c r="V81" s="35"/>
       <c r="X81" s="2" t="e">
         <f t="shared" si="18"/>
@@ -16586,12 +16565,12 @@
         <f>Q82</f>
         <v>34.061599999999999</v>
       </c>
-      <c r="S82" s="44"/>
+      <c r="S82" s="42"/>
       <c r="T82" s="21">
         <f t="shared" si="17"/>
         <v>34.061599999999999</v>
       </c>
-      <c r="U82" s="45"/>
+      <c r="U82" s="43"/>
       <c r="V82" s="35">
         <v>153</v>
       </c>
@@ -16682,12 +16661,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S83" s="44"/>
+      <c r="S83" s="42"/>
       <c r="T83" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U83" s="45"/>
+      <c r="U83" s="43"/>
       <c r="V83" s="35"/>
       <c r="X83" s="2">
         <f t="shared" si="18"/>
@@ -16761,12 +16740,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S84" s="44"/>
+      <c r="S84" s="42"/>
       <c r="T84" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U84" s="45"/>
+      <c r="U84" s="43"/>
       <c r="V84" s="35"/>
       <c r="X84" s="2" t="e">
         <f t="shared" si="18"/>
@@ -16853,12 +16832,12 @@
         <f t="shared" si="26"/>
         <v>89</v>
       </c>
-      <c r="S85" s="44"/>
+      <c r="S85" s="42"/>
       <c r="T85" s="21">
         <f t="shared" si="17"/>
         <v>89</v>
       </c>
-      <c r="U85" s="45"/>
+      <c r="U85" s="43"/>
       <c r="V85" s="35">
         <v>126</v>
       </c>
@@ -16943,12 +16922,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S86" s="44"/>
+      <c r="S86" s="42"/>
       <c r="T86" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U86" s="45"/>
+      <c r="U86" s="43"/>
       <c r="V86" s="35"/>
       <c r="X86" s="2" t="e">
         <f t="shared" si="18"/>
@@ -17033,12 +17012,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S87" s="44"/>
+      <c r="S87" s="42"/>
       <c r="T87" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U87" s="45"/>
+      <c r="U87" s="43"/>
       <c r="V87" s="35"/>
       <c r="X87" s="2" t="e">
         <f t="shared" si="18"/>
@@ -17121,12 +17100,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S88" s="44"/>
+      <c r="S88" s="42"/>
       <c r="T88" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U88" s="45"/>
+      <c r="U88" s="43"/>
       <c r="V88" s="35"/>
       <c r="X88" s="2" t="e">
         <f t="shared" si="18"/>
@@ -17206,12 +17185,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S89" s="44"/>
+      <c r="S89" s="42"/>
       <c r="T89" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U89" s="45"/>
+      <c r="U89" s="43"/>
       <c r="V89" s="35"/>
       <c r="X89" s="2" t="e">
         <f t="shared" si="18"/>
@@ -17291,12 +17270,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S90" s="44"/>
+      <c r="S90" s="42"/>
       <c r="T90" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U90" s="45"/>
+      <c r="U90" s="43"/>
       <c r="V90" s="35"/>
       <c r="X90" s="2" t="e">
         <f t="shared" si="18"/>
@@ -17376,12 +17355,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S91" s="44"/>
+      <c r="S91" s="42"/>
       <c r="T91" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U91" s="45"/>
+      <c r="U91" s="43"/>
       <c r="V91" s="35"/>
       <c r="X91" s="2">
         <f t="shared" si="18"/>
@@ -17461,12 +17440,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S92" s="44"/>
+      <c r="S92" s="42"/>
       <c r="T92" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U92" s="45"/>
+      <c r="U92" s="43"/>
       <c r="V92" s="35"/>
       <c r="X92" s="2" t="e">
         <f t="shared" si="18"/>
@@ -17554,12 +17533,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S93" s="44"/>
+      <c r="S93" s="42"/>
       <c r="T93" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U93" s="45"/>
+      <c r="U93" s="43"/>
       <c r="V93" s="35"/>
       <c r="X93" s="2">
         <f t="shared" si="18"/>
@@ -17643,12 +17622,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S94" s="44"/>
+      <c r="S94" s="42"/>
       <c r="T94" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U94" s="45"/>
+      <c r="U94" s="43"/>
       <c r="V94" s="35"/>
       <c r="X94" s="2" t="e">
         <f t="shared" si="18"/>
@@ -17735,12 +17714,12 @@
         <f>Q95</f>
         <v>5.7353999999999994</v>
       </c>
-      <c r="S95" s="44"/>
+      <c r="S95" s="42"/>
       <c r="T95" s="21">
         <f t="shared" si="17"/>
         <v>5.7353999999999994</v>
       </c>
-      <c r="U95" s="45"/>
+      <c r="U95" s="43"/>
       <c r="V95" s="35">
         <v>13</v>
       </c>
@@ -17827,12 +17806,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S96" s="44"/>
+      <c r="S96" s="42"/>
       <c r="T96" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U96" s="45"/>
+      <c r="U96" s="43"/>
       <c r="V96" s="35"/>
       <c r="X96" s="2">
         <f t="shared" si="18"/>
@@ -17918,12 +17897,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S97" s="44"/>
+      <c r="S97" s="42"/>
       <c r="T97" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U97" s="45"/>
+      <c r="U97" s="43"/>
       <c r="V97" s="35">
         <v>13</v>
       </c>
@@ -18012,12 +17991,12 @@
         <f t="shared" si="26"/>
         <v>16.080799999999996</v>
       </c>
-      <c r="S98" s="44"/>
+      <c r="S98" s="42"/>
       <c r="T98" s="21">
         <f t="shared" si="17"/>
         <v>16.080799999999996</v>
       </c>
-      <c r="U98" s="45"/>
+      <c r="U98" s="43"/>
       <c r="V98" s="35">
         <v>30</v>
       </c>
@@ -18105,12 +18084,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S99" s="44"/>
+      <c r="S99" s="42"/>
       <c r="T99" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U99" s="45"/>
+      <c r="U99" s="43"/>
       <c r="V99" s="35">
         <v>15</v>
       </c>
@@ -18192,12 +18171,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S100" s="44"/>
+      <c r="S100" s="42"/>
       <c r="T100" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U100" s="45"/>
+      <c r="U100" s="43"/>
       <c r="V100" s="35"/>
       <c r="X100" s="2">
         <f t="shared" si="18"/>
@@ -18286,12 +18265,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S101" s="44"/>
+      <c r="S101" s="42"/>
       <c r="T101" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U101" s="45"/>
+      <c r="U101" s="43"/>
       <c r="V101" s="35"/>
       <c r="X101" s="2">
         <f t="shared" si="18"/>
@@ -18383,12 +18362,12 @@
         <f t="shared" si="26"/>
         <v>21.250199999999992</v>
       </c>
-      <c r="S102" s="44"/>
+      <c r="S102" s="42"/>
       <c r="T102" s="21">
         <f t="shared" si="17"/>
         <v>21.250199999999992</v>
       </c>
-      <c r="U102" s="45"/>
+      <c r="U102" s="43"/>
       <c r="V102" s="35">
         <v>53</v>
       </c>
@@ -18484,12 +18463,12 @@
         <f t="shared" si="26"/>
         <v>285.60000000000002</v>
       </c>
-      <c r="S103" s="44"/>
+      <c r="S103" s="42"/>
       <c r="T103" s="21">
         <f t="shared" si="17"/>
         <v>285.60000000000002</v>
       </c>
-      <c r="U103" s="45"/>
+      <c r="U103" s="43"/>
       <c r="V103" s="35">
         <v>529</v>
       </c>
@@ -18583,12 +18562,12 @@
         <f t="shared" si="26"/>
         <v>77</v>
       </c>
-      <c r="S104" s="44"/>
+      <c r="S104" s="42"/>
       <c r="T104" s="21">
         <f t="shared" si="17"/>
         <v>77</v>
       </c>
-      <c r="U104" s="45"/>
+      <c r="U104" s="43"/>
       <c r="V104" s="35">
         <v>281</v>
       </c>
@@ -18678,12 +18657,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S105" s="44"/>
+      <c r="S105" s="42"/>
       <c r="T105" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U105" s="45"/>
+      <c r="U105" s="43"/>
       <c r="V105" s="35"/>
       <c r="X105" s="2">
         <f t="shared" si="18"/>
@@ -18766,12 +18745,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S106" s="44"/>
+      <c r="S106" s="42"/>
       <c r="T106" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U106" s="45"/>
+      <c r="U106" s="43"/>
       <c r="V106" s="35"/>
       <c r="X106" s="2" t="e">
         <f t="shared" si="18"/>
@@ -18851,12 +18830,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S107" s="44"/>
+      <c r="S107" s="42"/>
       <c r="T107" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U107" s="45"/>
+      <c r="U107" s="43"/>
       <c r="V107" s="35"/>
       <c r="X107" s="2" t="e">
         <f t="shared" si="18"/>
@@ -18936,12 +18915,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S108" s="44"/>
+      <c r="S108" s="42"/>
       <c r="T108" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U108" s="45"/>
+      <c r="U108" s="43"/>
       <c r="V108" s="35"/>
       <c r="X108" s="2" t="e">
         <f t="shared" si="18"/>
@@ -19021,12 +19000,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S109" s="44"/>
+      <c r="S109" s="42"/>
       <c r="T109" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U109" s="45"/>
+      <c r="U109" s="43"/>
       <c r="V109" s="35"/>
       <c r="X109" s="2" t="e">
         <f t="shared" si="18"/>
@@ -19115,12 +19094,12 @@
         <f t="shared" si="26"/>
         <v>13.600000000000001</v>
       </c>
-      <c r="S110" s="44"/>
+      <c r="S110" s="42"/>
       <c r="T110" s="21">
         <f t="shared" si="17"/>
         <v>13.600000000000001</v>
       </c>
-      <c r="U110" s="45"/>
+      <c r="U110" s="43"/>
       <c r="V110" s="35">
         <v>30</v>
       </c>
@@ -19211,12 +19190,12 @@
         <f t="shared" si="26"/>
         <v>45.799199999999999</v>
       </c>
-      <c r="S111" s="44"/>
+      <c r="S111" s="42"/>
       <c r="T111" s="21">
         <f t="shared" si="17"/>
         <v>45.799199999999999</v>
       </c>
-      <c r="U111" s="45"/>
+      <c r="U111" s="43"/>
       <c r="V111" s="35">
         <v>131</v>
       </c>
@@ -19306,12 +19285,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S112" s="44"/>
+      <c r="S112" s="42"/>
       <c r="T112" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U112" s="45"/>
+      <c r="U112" s="43"/>
       <c r="V112" s="35">
         <v>37</v>
       </c>
@@ -19389,12 +19368,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S113" s="44"/>
+      <c r="S113" s="42"/>
       <c r="T113" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U113" s="45"/>
+      <c r="U113" s="43"/>
       <c r="V113" s="35"/>
       <c r="X113" s="2" t="e">
         <f t="shared" si="18"/>
@@ -19476,12 +19455,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S114" s="44"/>
+      <c r="S114" s="42"/>
       <c r="T114" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U114" s="45"/>
+      <c r="U114" s="43"/>
       <c r="V114" s="35"/>
       <c r="X114" s="2">
         <f t="shared" si="18"/>
@@ -19567,12 +19546,12 @@
         <f>Q115</f>
         <v>0</v>
       </c>
-      <c r="S115" s="44"/>
+      <c r="S115" s="42"/>
       <c r="T115" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U115" s="45"/>
+      <c r="U115" s="43"/>
       <c r="V115" s="35">
         <v>29</v>
       </c>
@@ -19664,12 +19643,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S116" s="44"/>
+      <c r="S116" s="42"/>
       <c r="T116" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U116" s="45"/>
+      <c r="U116" s="43"/>
       <c r="V116" s="35"/>
       <c r="X116" s="2">
         <f t="shared" si="18"/>
@@ -19755,12 +19734,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S117" s="44"/>
+      <c r="S117" s="42"/>
       <c r="T117" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U117" s="45"/>
+      <c r="U117" s="43"/>
       <c r="V117" s="35"/>
       <c r="X117" s="2">
         <f t="shared" si="18"/>
@@ -19840,12 +19819,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S118" s="44"/>
+      <c r="S118" s="42"/>
       <c r="T118" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U118" s="45"/>
+      <c r="U118" s="43"/>
       <c r="V118" s="35"/>
       <c r="X118" s="2">
         <f t="shared" si="18"/>
@@ -19925,12 +19904,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S119" s="44"/>
+      <c r="S119" s="42"/>
       <c r="T119" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U119" s="45"/>
+      <c r="U119" s="43"/>
       <c r="V119" s="35"/>
       <c r="X119" s="2">
         <f t="shared" si="18"/>
@@ -20009,12 +19988,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S120" s="44"/>
+      <c r="S120" s="42"/>
       <c r="T120" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U120" s="45"/>
+      <c r="U120" s="43"/>
       <c r="V120" s="35"/>
       <c r="X120" s="2">
         <f t="shared" si="18"/>
@@ -20093,12 +20072,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S121" s="44"/>
+      <c r="S121" s="42"/>
       <c r="T121" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U121" s="45"/>
+      <c r="U121" s="43"/>
       <c r="V121" s="35"/>
       <c r="X121" s="2">
         <f t="shared" si="18"/>
@@ -20186,12 +20165,12 @@
         <f>Q122</f>
         <v>0</v>
       </c>
-      <c r="S122" s="44"/>
+      <c r="S122" s="42"/>
       <c r="T122" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U122" s="45"/>
+      <c r="U122" s="43"/>
       <c r="V122" s="35"/>
       <c r="X122" s="2">
         <f t="shared" si="18"/>
@@ -20274,12 +20253,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S123" s="44"/>
+      <c r="S123" s="42"/>
       <c r="T123" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U123" s="45"/>
+      <c r="U123" s="43"/>
       <c r="V123" s="35"/>
       <c r="X123" s="2" t="e">
         <f t="shared" si="18"/>
@@ -20351,12 +20330,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S124" s="44"/>
+      <c r="S124" s="42"/>
       <c r="T124" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U124" s="45"/>
+      <c r="U124" s="43"/>
       <c r="V124" s="35"/>
       <c r="X124" s="2" t="e">
         <f t="shared" si="18"/>
@@ -20434,12 +20413,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S125" s="44"/>
+      <c r="S125" s="42"/>
       <c r="T125" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U125" s="45"/>
+      <c r="U125" s="43"/>
       <c r="V125" s="35"/>
       <c r="X125" s="2">
         <f t="shared" si="18"/>
@@ -20517,12 +20496,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S126" s="44"/>
+      <c r="S126" s="42"/>
       <c r="T126" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U126" s="45"/>
+      <c r="U126" s="43"/>
       <c r="V126" s="35"/>
       <c r="X126" s="2">
         <f t="shared" si="18"/>
@@ -20600,12 +20579,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S127" s="44"/>
+      <c r="S127" s="42"/>
       <c r="T127" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U127" s="45"/>
+      <c r="U127" s="43"/>
       <c r="V127" s="35"/>
       <c r="X127" s="2">
         <f t="shared" si="18"/>
@@ -20683,12 +20662,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S128" s="44"/>
+      <c r="S128" s="42"/>
       <c r="T128" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U128" s="45"/>
+      <c r="U128" s="43"/>
       <c r="V128" s="35"/>
       <c r="X128" s="2">
         <f t="shared" si="18"/>
@@ -20766,12 +20745,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S129" s="44"/>
+      <c r="S129" s="42"/>
       <c r="T129" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U129" s="45"/>
+      <c r="U129" s="43"/>
       <c r="V129" s="35"/>
       <c r="X129" s="2">
         <f t="shared" si="18"/>
@@ -20849,12 +20828,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S130" s="44"/>
+      <c r="S130" s="42"/>
       <c r="T130" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U130" s="45"/>
+      <c r="U130" s="43"/>
       <c r="V130" s="35"/>
       <c r="X130" s="2">
         <f t="shared" si="18"/>
@@ -20932,12 +20911,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S131" s="44"/>
+      <c r="S131" s="42"/>
       <c r="T131" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U131" s="45"/>
+      <c r="U131" s="43"/>
       <c r="V131" s="35"/>
       <c r="X131" s="2">
         <f t="shared" si="18"/>
@@ -21015,12 +20994,12 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S132" s="46"/>
+      <c r="S132" s="44"/>
       <c r="T132" s="21">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U132" s="47"/>
+      <c r="U132" s="45"/>
       <c r="V132" s="35"/>
       <c r="X132" s="2">
         <f t="shared" si="18"/>
